--- a/results/logistic/dilemma/confidence/desired/avg_scores.xlsx
+++ b/results/logistic/dilemma/confidence/desired/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>negative</t>
   </si>
@@ -43,7 +43,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>pointless</t>
+    <t>mit</t>
   </si>
   <si>
     <t>unfortunately</t>
@@ -52,472 +52,448 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>sad</t>
   </si>
   <si>
     <t>serious</t>
   </si>
   <si>
-    <t>evil</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>fake</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>other</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>dark</t>
   </si>
   <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>past</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>mit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>news</t>
   </si>
   <si>
     <t>mad</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>felt</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>study</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>spreads</t>
+  </si>
+  <si>
     <t>faster</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>drama</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>were</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>some</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
   <si>
     <t>drugs</t>
   </si>
   <si>
-    <t>over</t>
+    <t>know</t>
   </si>
   <si>
     <t>not</t>
   </si>
   <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>:</t>
+    <t>twitter</t>
   </si>
   <si>
     <t>this</t>
   </si>
   <si>
+    <t>my</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>my</t>
+    <t>but</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>excited</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>waiting</t>
+  </si>
+  <si>
+    <t>harm</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>films</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>democracy</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>isn</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>mani</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>just</t>
   </si>
   <si>
-    <t>but</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>pursuing</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>ironic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>yesterday</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>engineers</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>isn</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ti</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>posting</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>opener</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>very</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>“</t>
-  </si>
-  <si>
-    <t>so</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watched</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>that</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -875,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -947,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -965,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1015,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1065,16 +1041,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1094,13 +1070,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.9787234042553191</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1115,16 +1091,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1136,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1144,13 +1120,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.9666666666666667</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1165,16 +1141,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K7">
-        <v>0.9459459459459459</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1186,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1194,13 +1170,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.9642857142857143</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1212,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="K8">
-        <v>0.9333333333333333</v>
+        <v>0.9052631578947369</v>
       </c>
       <c r="L8">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1236,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1265,16 +1241,16 @@
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="K9">
-        <v>0.9052631578947369</v>
+        <v>0.9</v>
       </c>
       <c r="L9">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1286,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1294,13 +1270,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.9166666666666666</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1315,16 +1291,16 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>0.9</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1336,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1344,13 +1320,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.8571428571428571</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1362,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="K11">
         <v>0.8771929824561403</v>
@@ -1394,13 +1370,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.8461538461538461</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1415,16 +1391,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="K12">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1436,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1444,13 +1420,13 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.8235294117647058</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1462,31 +1438,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K13">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
+        <v>24</v>
+      </c>
+      <c r="M13">
+        <v>24</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>5</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1494,49 +1470,49 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.8235294117647058</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>69</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14">
+        <v>0.8133333333333334</v>
+      </c>
+      <c r="L14">
+        <v>61</v>
+      </c>
+      <c r="M14">
+        <v>61</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>14</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L14">
-        <v>29</v>
-      </c>
-      <c r="M14">
-        <v>29</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1544,13 +1520,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.8181818181818182</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1562,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1586,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1594,13 +1570,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.8181818181818182</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1612,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K16">
         <v>0.7777777777777778</v>
@@ -1665,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>0.7733333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L17">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="M17">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1686,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1694,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.7948717948717948</v>
+        <v>0.8125</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1712,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1736,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1744,13 +1720,13 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.75</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1762,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1786,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1794,13 +1770,13 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.7435897435897436</v>
+        <v>0.8</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1812,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="K20">
-        <v>0.7076923076923077</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L20">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1836,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1844,13 +1820,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1862,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.671875</v>
       </c>
       <c r="L21">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1886,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1894,13 +1870,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.725</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1912,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="K22">
-        <v>0.6363636363636364</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1936,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1944,13 +1920,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1962,19 +1938,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="K23">
-        <v>0.5714285714285714</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1986,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1994,13 +1970,13 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.7</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2012,19 +1988,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K24">
-        <v>0.5555555555555556</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2036,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2044,13 +2020,13 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.6923076923076923</v>
+        <v>0.725</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2062,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2086,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2094,13 +2070,13 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2112,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>0.5</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2136,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2144,13 +2120,13 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.6666666666666666</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2162,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2186,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2194,13 +2170,13 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.6521739130434783</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2212,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2236,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2244,13 +2220,13 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2262,19 +2238,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="K29">
-        <v>0.4827586206896552</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2286,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2294,13 +2270,13 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2312,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="K30">
-        <v>0.4615384615384616</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2336,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2344,37 +2320,37 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>10</v>
       </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>6</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K31">
-        <v>0.4545454545454545</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2386,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2394,13 +2370,13 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2412,19 +2388,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K32">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2436,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2444,13 +2420,13 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2462,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="K33">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2486,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2494,13 +2470,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.5833333333333334</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2515,16 +2491,16 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K34">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2536,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2544,7 +2520,7 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2562,19 +2538,19 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35">
+        <v>0.2424242424242424</v>
+      </c>
+      <c r="L35">
         <v>8</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
       <c r="M35">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2586,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2594,13 +2570,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.4166666666666667</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2612,31 +2588,31 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>7</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K36">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2644,13 +2620,13 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.3928571428571428</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2662,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K37">
-        <v>0.2682926829268293</v>
+        <v>0.2</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2686,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2694,13 +2670,13 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2712,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="K38">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -2736,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2744,13 +2720,13 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2762,19 +2738,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K39">
-        <v>0.2222222222222222</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2786,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2794,13 +2770,13 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.2142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2812,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K40">
-        <v>0.2131147540983606</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2836,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2844,13 +2820,13 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.2</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2862,19 +2838,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="K41">
-        <v>0.1875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2886,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2894,37 +2870,37 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>7</v>
       </c>
-      <c r="D42">
-        <v>7</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>28</v>
-      </c>
       <c r="J42" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K42">
-        <v>0.1428571428571428</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2936,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2944,13 +2920,13 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.1785714285714286</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2962,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K43">
         <v>0.1333333333333333</v>
@@ -2994,13 +2970,13 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3012,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="K44">
-        <v>0.125</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3036,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3044,7 +3020,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3062,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="K45">
-        <v>0.122040072859745</v>
+        <v>0.1275045537340619</v>
       </c>
       <c r="L45">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M45">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3086,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3094,7 +3070,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -3112,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K46">
-        <v>0.1126760563380282</v>
+        <v>0.125</v>
       </c>
       <c r="L46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3136,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>63</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3144,13 +3120,13 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.1428571428571428</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3162,19 +3138,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K47">
-        <v>0.1111111111111111</v>
+        <v>0.125</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3186,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3194,13 +3170,13 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.1428571428571428</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3212,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K48">
         <v>0.1111111111111111</v>
@@ -3244,13 +3220,13 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1333333333333333</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3262,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K49">
-        <v>0.103448275862069</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3286,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3294,13 +3270,13 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.1076923076923077</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3312,19 +3288,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K50">
-        <v>0.05263157894736842</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3336,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3344,13 +3320,13 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.1057692307692308</v>
+        <v>0.08</v>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3362,19 +3338,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K51">
-        <v>0.04918032786885246</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3386,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3394,7 +3370,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3412,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K52">
-        <v>0.04761904761904762</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3436,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3444,13 +3420,13 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3462,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K53">
-        <v>0.03846153846153846</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3486,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3494,13 +3470,13 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.09090909090909091</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3512,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K54">
-        <v>0.03846153846153846</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3536,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3544,7 +3520,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.08333333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3562,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K55">
-        <v>0.03333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3586,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3594,7 +3570,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.0625</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3612,13 +3588,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K56">
-        <v>0.03225806451612903</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3636,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3644,13 +3620,13 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.05555555555555555</v>
+        <v>0.025</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3662,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="K57">
-        <v>0.02083333333333333</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3686,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3694,7 +3670,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.05263157894736842</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -3712,19 +3688,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="K58">
-        <v>0.01851851851851852</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3736,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>53</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3744,37 +3720,37 @@
         <v>65</v>
       </c>
       <c r="B59">
+        <v>0.0136986301369863</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>72</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59">
         <v>0.04761904761904762</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>20</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K59">
-        <v>0.01098901098901099</v>
-      </c>
       <c r="L59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3786,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3794,13 +3770,13 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.04</v>
+        <v>0.01003344481605351</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3812,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K60">
-        <v>0.01052631578947368</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3836,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3844,7 +3820,7 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -3862,13 +3838,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K61">
-        <v>0.0101010101010101</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -3886,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>196</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3894,49 +3870,49 @@
         <v>68</v>
       </c>
       <c r="B62">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>105</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62">
         <v>0.03846153846153846</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>25</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K62">
-        <v>0.008695652173913044</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3944,7 +3920,7 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.03448275862068965</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3962,19 +3938,19 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K63">
-        <v>0.006711409395973154</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3986,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3994,37 +3970,37 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.03333333333333333</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K64">
-        <v>0.004950495049504951</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4036,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>201</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4044,13 +4020,13 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02830188679245283</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4062,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K65">
-        <v>0.004878048780487805</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4086,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>204</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4094,13 +4070,13 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02777777777777778</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4112,31 +4088,31 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>35</v>
+        <v>447</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K66">
-        <v>0.00425531914893617</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L66">
         <v>1</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N66">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>234</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4144,37 +4120,37 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02092050209205021</v>
+        <v>0.003759398496240601</v>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E67">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K67">
-        <v>0.004213483146067416</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4186,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>709</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4194,37 +4170,37 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.0198019801980198</v>
+        <v>0.003588087549336204</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>99</v>
+        <v>2777</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K68">
-        <v>0.002932551319648094</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4236,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>340</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4244,13 +4220,13 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.01851851851851852</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4262,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K69">
-        <v>0.002597402597402597</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4286,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>384</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4294,7 +4270,7 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.01587301587301587</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4312,31 +4288,31 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>62</v>
+        <v>370</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="K70">
-        <v>0.002564102564102564</v>
+        <v>0.005194805194805195</v>
       </c>
       <c r="L70">
         <v>2</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>778</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4344,49 +4320,49 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.01005025125628141</v>
+        <v>0.001647446457990115</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>197</v>
+        <v>606</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="K71">
-        <v>0.001818181818181818</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="O71">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>549</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4394,49 +4370,49 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.009708737864077669</v>
+        <v>0.001367989056087551</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>102</v>
+        <v>730</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="K72">
-        <v>0.001745200698080279</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="L72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1144</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4444,7 +4420,7 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.008771929824561403</v>
+        <v>0.001280409731113956</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4462,31 +4438,31 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>113</v>
+        <v>780</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="K73">
-        <v>0.001647446457990115</v>
+        <v>0.00353356890459364</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>606</v>
+        <v>282</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4494,49 +4470,49 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>0.008695652173913044</v>
+        <v>0.001042752867570386</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>114</v>
+        <v>958</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="K74">
-        <v>0.001626016260162602</v>
+        <v>0.003472222222222222</v>
       </c>
       <c r="L74">
         <v>1</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>614</v>
+        <v>287</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4544,43 +4520,43 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>0.008</v>
+        <v>0.0009569377990430622</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>124</v>
+        <v>1044</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K75">
-        <v>0.001042752867570386</v>
+        <v>0.003121748178980229</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75">
         <v>4</v>
       </c>
       <c r="N75">
+        <v>0.25</v>
+      </c>
+      <c r="O75">
         <v>0.75</v>
-      </c>
-      <c r="O75">
-        <v>0.25</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
@@ -4594,13 +4570,13 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>0.006688963210702341</v>
+        <v>0.0008748906386701663</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4612,31 +4588,31 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>297</v>
+        <v>1142</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K76">
-        <v>0.0007204610951008645</v>
+        <v>0.00273224043715847</v>
       </c>
       <c r="L76">
         <v>2</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N76">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="O76">
-        <v>0.14</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>2774</v>
+        <v>730</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4644,7 +4620,7 @@
         <v>83</v>
       </c>
       <c r="B77">
-        <v>0.006493506493506494</v>
+        <v>0.0008718395815170009</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4662,31 +4638,31 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>153</v>
+        <v>1146</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="K77">
-        <v>0.0005763688760806917</v>
+        <v>0.002710027100271003</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="M77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1734</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4694,414 +4670,178 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>0.005917159763313609</v>
+        <v>0.0002546473134708429</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>168</v>
+        <v>3926</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K78">
+        <v>0.001647446457990115</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>0.5</v>
+      </c>
+      <c r="O78">
+        <v>0.5</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B79">
-        <v>0.004672897196261682</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>213</v>
+      <c r="J79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K79">
+        <v>0.001404494382022472</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>1</v>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>711</v>
       </c>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80">
-        <v>0.004444444444444444</v>
-      </c>
-      <c r="C80">
+      <c r="J80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K80">
+        <v>0.001138952164009112</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K81">
+        <v>0.0009569377990430622</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
         <v>2</v>
       </c>
-      <c r="D80">
+      <c r="N81">
+        <v>0.5</v>
+      </c>
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82">
+        <v>0.0003599712023038157</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>11</v>
+      </c>
+      <c r="N82">
+        <v>0.91</v>
+      </c>
+      <c r="O82">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K83">
+        <v>0.0002546473134708429</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
         <v>2</v>
       </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81">
-        <v>0.004307250538406317</v>
-      </c>
-      <c r="C81">
-        <v>12</v>
-      </c>
-      <c r="D81">
-        <v>14</v>
-      </c>
-      <c r="E81">
-        <v>0.86</v>
-      </c>
-      <c r="F81">
-        <v>0.14</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>2774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82">
-        <v>0.003759398496240601</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B83">
-        <v>0.003597122302158274</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B84">
-        <v>0.003367003367003367</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85">
-        <v>0.003121748178980229</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85">
-        <v>0.75</v>
-      </c>
-      <c r="F85">
-        <v>0.25</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86">
-        <v>0.002695417789757413</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87">
-        <v>0.001647446457990115</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87">
+      <c r="N83">
         <v>0.5</v>
       </c>
-      <c r="F87">
+      <c r="O83">
         <v>0.5</v>
       </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88">
-        <v>0.001626016260162602</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>0.5</v>
-      </c>
-      <c r="F88">
-        <v>0.5</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B89">
-        <v>0.001283697047496791</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <v>0.33</v>
-      </c>
-      <c r="F89">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B90">
-        <v>0.00104602510460251</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91">
-        <v>0.0008733624454148472</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91">
-        <v>0.33</v>
-      </c>
-      <c r="F91">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92">
-        <v>0.0005763688760806917</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>0.5</v>
-      </c>
-      <c r="F92">
-        <v>0.5</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1734</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93">
-        <v>0.0005091649694501018</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
         <v>3926</v>
       </c>
     </row>
